--- a/src/predicciones/holt_winters/producto_219.xlsx
+++ b/src/predicciones/holt_winters/producto_219.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1620 +404,1873 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>0.8592163503828414</v>
+        <v>1.499390232831758</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44930</v>
       </c>
       <c r="B3">
-        <v>0.9197895852562727</v>
+        <v>1.68265102874728</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44931</v>
       </c>
       <c r="B4">
-        <v>1.000153504287969</v>
+        <v>0.8366254919904647</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44936</v>
       </c>
       <c r="B5">
-        <v>2.044375091607781</v>
+        <v>1.177094977148358</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44937</v>
       </c>
       <c r="B6">
-        <v>1.909206120355447</v>
+        <v>1.33049125050333</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44939</v>
       </c>
       <c r="B7">
-        <v>0.8095460703689999</v>
+        <v>1.4623039852169</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44940</v>
       </c>
       <c r="B8">
-        <v>2.000099003970711</v>
+        <v>1.187069339179628</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44941</v>
       </c>
       <c r="B9">
-        <v>0.8615784136362425</v>
+        <v>1.497545258021489</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44945</v>
       </c>
       <c r="B10">
-        <v>0.9221516485096737</v>
+        <v>1.680806053937011</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44946</v>
       </c>
       <c r="B11">
-        <v>1.00251556754137</v>
+        <v>0.8347805171801957</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44952</v>
       </c>
       <c r="B12">
-        <v>2.046737154861181</v>
+        <v>1.175250002338089</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44960</v>
       </c>
       <c r="B13">
-        <v>1.911568183608849</v>
+        <v>1.328646275693061</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44964</v>
       </c>
       <c r="B14">
-        <v>0.8119081336224009</v>
+        <v>1.460459010406632</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44965</v>
       </c>
       <c r="B15">
-        <v>2.002461067224112</v>
+        <v>1.185224364369359</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44968</v>
       </c>
       <c r="B16">
-        <v>0.8639404768896435</v>
+        <v>1.49570028321122</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44970</v>
       </c>
       <c r="B17">
-        <v>0.9245137117630746</v>
+        <v>1.678961079126742</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44972</v>
       </c>
       <c r="B18">
-        <v>1.004877630794771</v>
+        <v>0.8329355423699268</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44975</v>
       </c>
       <c r="B19">
-        <v>2.049099218114582</v>
+        <v>1.17340502752782</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44978</v>
       </c>
       <c r="B20">
-        <v>1.913930246862249</v>
+        <v>1.326801300882792</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44980</v>
       </c>
       <c r="B21">
-        <v>0.8142701968758018</v>
+        <v>1.458614035596363</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44982</v>
       </c>
       <c r="B22">
-        <v>2.004823130477514</v>
+        <v>1.18337938955909</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44985</v>
       </c>
       <c r="B23">
-        <v>0.8663025401430444</v>
+        <v>1.493855308400951</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44986</v>
       </c>
       <c r="B24">
-        <v>0.9268757750164758</v>
+        <v>1.677116104316474</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44987</v>
       </c>
       <c r="B25">
-        <v>1.007239694048172</v>
+        <v>0.8310905675596579</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44988</v>
       </c>
       <c r="B26">
-        <v>2.051461281367983</v>
+        <v>1.171560052717551</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44989</v>
       </c>
       <c r="B27">
-        <v>1.91629231011565</v>
+        <v>1.324956326072523</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44991</v>
       </c>
       <c r="B28">
-        <v>0.816632260129203</v>
+        <v>1.456769060786094</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44998</v>
       </c>
       <c r="B29">
-        <v>2.007185193730915</v>
+        <v>1.181534414748822</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45000</v>
       </c>
       <c r="B30">
-        <v>0.8686646033964454</v>
+        <v>1.492010333590682</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45002</v>
       </c>
       <c r="B31">
-        <v>0.9292378382698767</v>
+        <v>1.675271129506205</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45004</v>
       </c>
       <c r="B32">
-        <v>1.009601757301573</v>
+        <v>0.829245592749389</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45005</v>
       </c>
       <c r="B33">
-        <v>2.053823344621384</v>
+        <v>1.169715077907282</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45008</v>
       </c>
       <c r="B34">
-        <v>1.918654373369051</v>
+        <v>1.323111351262254</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45009</v>
       </c>
       <c r="B35">
-        <v>0.8189943233826039</v>
+        <v>1.454924085975825</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45010</v>
       </c>
       <c r="B36">
-        <v>2.009547256984316</v>
+        <v>1.179689439938553</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45015</v>
       </c>
       <c r="B37">
-        <v>0.8710266666498465</v>
+        <v>1.490165358780413</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45016</v>
       </c>
       <c r="B38">
-        <v>0.9315999015232777</v>
+        <v>1.673426154695936</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45017</v>
       </c>
       <c r="B39">
-        <v>1.011963820554974</v>
+        <v>0.8274006179391201</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45018</v>
       </c>
       <c r="B40">
-        <v>2.056185407874785</v>
+        <v>1.167870103097014</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45028</v>
       </c>
       <c r="B41">
-        <v>1.921016436622452</v>
+        <v>1.321266376451985</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45029</v>
       </c>
       <c r="B42">
-        <v>0.8213563866360049</v>
+        <v>1.453079111165556</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45034</v>
       </c>
       <c r="B43">
-        <v>2.011909320237717</v>
+        <v>1.177844465128284</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45043</v>
       </c>
       <c r="B44">
-        <v>0.8733887299032475</v>
+        <v>1.488320383970144</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45044</v>
       </c>
       <c r="B45">
-        <v>0.9339619647766786</v>
+        <v>1.671581179885667</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45045</v>
       </c>
       <c r="B46">
-        <v>1.014325883808375</v>
+        <v>0.8255556431288512</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45046</v>
       </c>
       <c r="B47">
-        <v>2.058547471128186</v>
+        <v>1.166025128286745</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45051</v>
       </c>
       <c r="B48">
-        <v>1.923378499875853</v>
+        <v>1.319421401641717</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45052</v>
       </c>
       <c r="B49">
-        <v>0.8237184498894058</v>
+        <v>1.451234136355287</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45053</v>
       </c>
       <c r="B50">
-        <v>2.014271383491117</v>
+        <v>1.175999490318015</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45058</v>
       </c>
       <c r="B51">
-        <v>0.8757507931566484</v>
+        <v>1.486475409159875</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45059</v>
       </c>
       <c r="B52">
-        <v>0.9363240280300797</v>
+        <v>1.669736205075398</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45060</v>
       </c>
       <c r="B53">
-        <v>1.016687947061776</v>
+        <v>0.8237106683185823</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45064</v>
       </c>
       <c r="B54">
-        <v>2.060909534381588</v>
+        <v>1.164180153476476</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45065</v>
       </c>
       <c r="B55">
-        <v>1.925740563129254</v>
+        <v>1.317576426831447</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45073</v>
       </c>
       <c r="B56">
-        <v>0.8260805131428067</v>
+        <v>1.449389161545018</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45076</v>
       </c>
       <c r="B57">
-        <v>2.016633446744518</v>
+        <v>1.174154515507746</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45079</v>
       </c>
       <c r="B58">
-        <v>0.8781128564100493</v>
+        <v>1.484630434349606</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45081</v>
       </c>
       <c r="B59">
-        <v>0.9386860912834807</v>
+        <v>1.667891230265129</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45084</v>
       </c>
       <c r="B60">
-        <v>1.019050010315177</v>
+        <v>0.8218656935083134</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45085</v>
       </c>
       <c r="B61">
-        <v>2.063271597634988</v>
+        <v>1.162335178666207</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45088</v>
       </c>
       <c r="B62">
-        <v>1.928102626382655</v>
+        <v>1.315731452021178</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45095</v>
       </c>
       <c r="B63">
-        <v>0.8284425763962079</v>
+        <v>1.447544186734749</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45096</v>
       </c>
       <c r="B64">
-        <v>2.018995509997919</v>
+        <v>1.172309540697477</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45097</v>
       </c>
       <c r="B65">
-        <v>0.8804749196634505</v>
+        <v>1.482785459539337</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45100</v>
       </c>
       <c r="B66">
-        <v>0.9410481545368816</v>
+        <v>1.66604625545486</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45104</v>
       </c>
       <c r="B67">
-        <v>1.021412073568578</v>
+        <v>0.8200207186980445</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45108</v>
       </c>
       <c r="B68">
-        <v>2.065633660888389</v>
+        <v>1.160490203855938</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45114</v>
       </c>
       <c r="B69">
-        <v>1.930464689636056</v>
+        <v>1.31388647721091</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45121</v>
       </c>
       <c r="B70">
-        <v>0.8308046396496088</v>
+        <v>1.44569921192448</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45124</v>
       </c>
       <c r="B71">
-        <v>2.02135757325132</v>
+        <v>1.170464565887208</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45125</v>
       </c>
       <c r="B72">
-        <v>0.8828369829168514</v>
+        <v>1.480940484729069</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45128</v>
       </c>
       <c r="B73">
-        <v>0.9434102177902826</v>
+        <v>1.664201280644591</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45131</v>
       </c>
       <c r="B74">
-        <v>1.023774136821979</v>
+        <v>0.8181757438877756</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45133</v>
       </c>
       <c r="B75">
-        <v>2.06799572414179</v>
+        <v>1.158645229045669</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45134</v>
       </c>
       <c r="B76">
-        <v>1.932826752889457</v>
+        <v>1.312041502400641</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45136</v>
       </c>
       <c r="B77">
-        <v>0.8331667029030098</v>
+        <v>1.443854237114211</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45138</v>
       </c>
       <c r="B78">
-        <v>2.023719636504722</v>
+        <v>1.168619591076939</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45142</v>
       </c>
       <c r="B79">
-        <v>0.8851990461702524</v>
+        <v>1.4790955099188</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45143</v>
       </c>
       <c r="B80">
-        <v>0.9457722810436837</v>
+        <v>1.662356305834322</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45144</v>
       </c>
       <c r="B81">
-        <v>1.02613620007538</v>
+        <v>0.8163307690775067</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45147</v>
       </c>
       <c r="B82">
-        <v>2.070357787395191</v>
+        <v>1.1568002542354</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45148</v>
       </c>
       <c r="B83">
-        <v>1.935188816142858</v>
+        <v>1.310196527590372</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45149</v>
       </c>
       <c r="B84">
-        <v>0.8355287661564107</v>
+        <v>1.442009262303942</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45151</v>
       </c>
       <c r="B85">
-        <v>2.026081699758123</v>
+        <v>1.16677461626667</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45154</v>
       </c>
       <c r="B86">
-        <v>0.8875611094236533</v>
+        <v>1.477250535108531</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45158</v>
       </c>
       <c r="B87">
-        <v>0.9481343442970847</v>
+        <v>1.660511331024053</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45161</v>
       </c>
       <c r="B88">
-        <v>1.028498263328781</v>
+        <v>0.8144857942672378</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45164</v>
       </c>
       <c r="B89">
-        <v>2.072719850648592</v>
+        <v>1.154955279425131</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45165</v>
       </c>
       <c r="B90">
-        <v>1.937550879396259</v>
+        <v>1.308351552780103</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45167</v>
       </c>
       <c r="B91">
-        <v>0.8378908294098119</v>
+        <v>1.440164287493673</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45168</v>
       </c>
       <c r="B92">
-        <v>2.028443763011524</v>
+        <v>1.164929641456401</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45169</v>
       </c>
       <c r="B93">
-        <v>0.8899231726770545</v>
+        <v>1.475405560298262</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45172</v>
       </c>
       <c r="B94">
-        <v>0.9504964075504856</v>
+        <v>1.658666356213784</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45174</v>
       </c>
       <c r="B95">
-        <v>1.030860326582182</v>
+        <v>0.8126408194569689</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45176</v>
       </c>
       <c r="B96">
-        <v>2.075081913901993</v>
+        <v>1.153110304614862</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45178</v>
       </c>
       <c r="B97">
-        <v>1.93991294264966</v>
+        <v>1.306506577969834</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45180</v>
       </c>
       <c r="B98">
-        <v>0.8402528926632128</v>
+        <v>1.438319312683404</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45182</v>
       </c>
       <c r="B99">
-        <v>2.030805826264924</v>
+        <v>1.163084666646133</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45184</v>
       </c>
       <c r="B100">
-        <v>0.8922852359304554</v>
+        <v>1.473560585487993</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45189</v>
       </c>
       <c r="B101">
-        <v>0.9528584708038865</v>
+        <v>1.656821381403516</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45191</v>
       </c>
       <c r="B102">
-        <v>1.033222389835583</v>
+        <v>0.8107958446467</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45193</v>
       </c>
       <c r="B103">
-        <v>2.077443977155394</v>
+        <v>1.151265329804593</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45194</v>
       </c>
       <c r="B104">
-        <v>1.942275005903061</v>
+        <v>1.304661603159565</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45197</v>
       </c>
       <c r="B105">
-        <v>0.8426149559166137</v>
+        <v>1.436474337873135</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45198</v>
       </c>
       <c r="B106">
-        <v>2.033167889518325</v>
+        <v>1.161239691835864</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45200</v>
       </c>
       <c r="B107">
-        <v>0.8946472991838563</v>
+        <v>1.471715610677724</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45201</v>
       </c>
       <c r="B108">
-        <v>0.9552205340572877</v>
+        <v>1.654976406593247</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45209</v>
       </c>
       <c r="B109">
-        <v>1.035584453088984</v>
+        <v>0.8089508698364311</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45213</v>
       </c>
       <c r="B110">
-        <v>2.079806040408795</v>
+        <v>1.149420354994324</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45214</v>
       </c>
       <c r="B111">
-        <v>1.944637069156462</v>
+        <v>1.302816628349296</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45216</v>
       </c>
       <c r="B112">
-        <v>0.8449770191700147</v>
+        <v>1.434629363062867</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45220</v>
       </c>
       <c r="B113">
-        <v>2.035529952771726</v>
+        <v>1.159394717025595</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45221</v>
       </c>
       <c r="B114">
-        <v>0.8970093624372573</v>
+        <v>1.469870635867455</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45222</v>
       </c>
       <c r="B115">
-        <v>0.9575825973106886</v>
+        <v>1.653131431782978</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45225</v>
       </c>
       <c r="B116">
-        <v>1.037946516342385</v>
+        <v>0.8071058950261621</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45234</v>
       </c>
       <c r="B117">
-        <v>2.082168103662196</v>
+        <v>1.147575380184056</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45237</v>
       </c>
       <c r="B118">
-        <v>1.946999132409863</v>
+        <v>1.300971653539027</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45242</v>
       </c>
       <c r="B119">
-        <v>0.8473390824234158</v>
+        <v>1.432784388252598</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45245</v>
       </c>
       <c r="B120">
-        <v>2.037892016025127</v>
+        <v>1.157549742215326</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45247</v>
       </c>
       <c r="B121">
-        <v>0.8993714256906584</v>
+        <v>1.468025661057186</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45248</v>
       </c>
       <c r="B122">
-        <v>0.9599446605640896</v>
+        <v>1.651286456972709</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45250</v>
       </c>
       <c r="B123">
-        <v>1.040308579595786</v>
+        <v>0.8052609202158932</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45251</v>
       </c>
       <c r="B124">
-        <v>2.084530166915597</v>
+        <v>1.145730405373787</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45253</v>
       </c>
       <c r="B125">
-        <v>1.949361195663264</v>
+        <v>1.299126678728758</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45256</v>
       </c>
       <c r="B126">
-        <v>0.8497011456768168</v>
+        <v>1.430939413442329</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45258</v>
       </c>
       <c r="B127">
-        <v>2.040254079278528</v>
+        <v>1.155704767405057</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45264</v>
       </c>
       <c r="B128">
-        <v>0.9017334889440594</v>
+        <v>1.466180686246917</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45270</v>
       </c>
       <c r="B129">
-        <v>0.9623067238174905</v>
+        <v>1.64944148216244</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45271</v>
       </c>
       <c r="B130">
-        <v>1.042670642849187</v>
+        <v>0.8034159454056243</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45275</v>
       </c>
       <c r="B131">
-        <v>2.086892230168998</v>
+        <v>1.143885430563518</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45281</v>
       </c>
       <c r="B132">
-        <v>1.951723258916665</v>
+        <v>1.297281703918489</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45282</v>
       </c>
       <c r="B133">
-        <v>0.8520632089302177</v>
+        <v>1.42909443863206</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45283</v>
       </c>
       <c r="B134">
-        <v>2.04261614253193</v>
+        <v>1.153859792594788</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45286</v>
       </c>
       <c r="B135">
-        <v>0.9040955521974603</v>
+        <v>1.464335711436648</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45290</v>
       </c>
       <c r="B136">
-        <v>0.9646687870708917</v>
+        <v>1.647596507352171</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45291</v>
       </c>
       <c r="B137">
-        <v>1.045032706102588</v>
+        <v>0.8015709705953554</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45293</v>
       </c>
       <c r="B138">
-        <v>2.089254293422399</v>
+        <v>1.142040455753249</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45295</v>
       </c>
       <c r="B139">
-        <v>1.954085322170066</v>
+        <v>1.29543672910822</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45296</v>
       </c>
       <c r="B140">
-        <v>0.8544252721836186</v>
+        <v>1.427249463821791</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45297</v>
       </c>
       <c r="B141">
-        <v>2.044978205785331</v>
+        <v>1.152014817784519</v>
       </c>
       <c r="C141">
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45299</v>
       </c>
       <c r="B142">
-        <v>0.9064576154508612</v>
+        <v>1.46249073662638</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>45300</v>
       </c>
       <c r="B143">
-        <v>0.9670308503242926</v>
+        <v>1.645751532541902</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>45302</v>
       </c>
       <c r="B144">
-        <v>1.047394769355989</v>
+        <v>0.7997259957850865</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>45303</v>
       </c>
       <c r="B145">
-        <v>2.0916163566758</v>
+        <v>1.14019548094298</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>45304</v>
       </c>
       <c r="B146">
-        <v>1.956447385423467</v>
+        <v>1.293591754297952</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>45307</v>
       </c>
       <c r="B147">
-        <v>0.8567873354370198</v>
+        <v>1.425404489011522</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>45309</v>
       </c>
       <c r="B148">
-        <v>2.047340269038731</v>
+        <v>1.15016984297425</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B149">
+        <v>1.460645761816111</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45312</v>
+      </c>
+      <c r="B150">
+        <v>1.643906557731633</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B151">
+        <v>0.7978810209748176</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B152">
+        <v>1.138350506132711</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B153">
+        <v>1.291746779487683</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B154">
+        <v>1.423559514201253</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B155">
+        <v>1.148324868163981</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B156">
+        <v>1.458800787005842</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B157">
+        <v>1.642061582921364</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B158">
+        <v>0.7960360461645487</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B159">
+        <v>1.136505531322442</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B160">
+        <v>1.289901804677414</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>45333</v>
+      </c>
+      <c r="B161">
+        <v>1.421714539390984</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B162">
+        <v>1.146479893353712</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B163">
+        <v>1.456955812195573</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B164">
+        <v>1.640216608111095</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B165">
+        <v>0.7941910713542798</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B166">
+        <v>1.134660556512173</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B167">
+        <v>1.288056829867145</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>45346</v>
+      </c>
+      <c r="B168">
+        <v>1.419869564580715</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B169">
+        <v>1.144634918543443</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B170">
+        <v>1.455110837385304</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B171">
+        <v>1.638371633300826</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
